--- a/DATASET.xlsx
+++ b/DATASET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sha\AI Course Tamil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7654AD-AEF8-4E7B-81C5-0EC3B8882257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77A2DA7-12CE-4E45-A324-894D42DCB4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FE1F43B-2F5D-4645-962B-D854FA69DCDC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>EMPLOYEE NAME</t>
   </si>
@@ -50,15 +50,6 @@
     <t>DOB</t>
   </si>
   <si>
-    <t>PASSPORT NUMBER</t>
-  </si>
-  <si>
-    <t>VISA STATUS</t>
-  </si>
-  <si>
-    <t>DATE OF JOIN</t>
-  </si>
-  <si>
     <t>CONTRACT PERIOD</t>
   </si>
   <si>
@@ -74,7 +65,49 @@
     <t>VISA EXPIRY</t>
   </si>
   <si>
-    <t>REASON FOR RESIGN</t>
+    <t xml:space="preserve">OUTPUT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANAGER FEEDBACK </t>
+  </si>
+  <si>
+    <t>AHAMED</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>2 YRS</t>
+  </si>
+  <si>
+    <t>MANAGER RATING OUT OF 10</t>
+  </si>
+  <si>
+    <t>PERFORMANCE</t>
+  </si>
+  <si>
+    <t>GOOD</t>
+  </si>
+  <si>
+    <t>HARDWORKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT RESIGN </t>
+  </si>
+  <si>
+    <t>ARUN KUMAR</t>
+  </si>
+  <si>
+    <t>NOT GOOD</t>
+  </si>
+  <si>
+    <t>OFFICE TIMING NOT KEEPING AND TASK DOING SLOWLY</t>
+  </si>
+  <si>
+    <t>RESIGN</t>
+  </si>
+  <si>
+    <t>ASHIK</t>
   </si>
 </sst>
 </file>
@@ -130,13 +163,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,20 +510,20 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -505,83 +541,155 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>100123</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1988</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3500</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>100124</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="3"/>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1988</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3500</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>100125</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1988</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1">
+        <v>9</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -591,7 +699,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -608,7 +716,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -625,7 +733,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -642,7 +750,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -659,7 +767,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -676,7 +784,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -693,7 +801,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -710,7 +818,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -727,7 +835,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -744,7 +852,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -761,7 +869,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -778,7 +886,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
